--- a/pulpe/resources/files/formato_factura.xlsx
+++ b/pulpe/resources/files/formato_factura.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RARDON\Dropbox\CSDFoodShop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RARDON\Documents\workspace\own\pulpe\pulpe\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>CSD FOOD SHOP</t>
   </si>
@@ -59,15 +59,9 @@
     <t>Haga sus pagos en:</t>
   </si>
   <si>
-    <t>Descuento %</t>
-  </si>
-  <si>
     <t>TIGOMONEY</t>
   </si>
   <si>
-    <t>Total Descuento</t>
-  </si>
-  <si>
     <t>BAC</t>
   </si>
   <si>
@@ -77,18 +71,12 @@
     <t>ATLANTIDA</t>
   </si>
   <si>
-    <t>ABONOS</t>
-  </si>
-  <si>
     <t>OCCIDENTE</t>
   </si>
   <si>
     <t>21-401-150741-4</t>
   </si>
   <si>
-    <t>TOTAL PENDIENTE</t>
-  </si>
-  <si>
     <t>FICOHSA</t>
   </si>
   <si>
@@ -99,6 +87,15 @@
   </si>
   <si>
     <t>*Recuerde notificar su pago</t>
+  </si>
+  <si>
+    <t>Saldo a Favor</t>
+  </si>
+  <si>
+    <t>Descuento</t>
+  </si>
+  <si>
+    <t>Abonos</t>
   </si>
 </sst>
 </file>
@@ -109,7 +106,7 @@
     <numFmt numFmtId="164" formatCode="d&quot; de &quot;mmmm&quot; de &quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ ;[Red]\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -157,6 +154,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -190,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -224,100 +226,212 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,7 +787,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -689,353 +803,336 @@
   <sheetData>
     <row r="1" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:6" ht="35.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="13" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="15"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="16" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
     </row>
     <row r="8" spans="1:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="17" t="s">
+      <c r="C13" s="31"/>
+      <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19" t="str">
+      <c r="A14" s="4"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="str">
         <f t="shared" ref="F14:F25" si="0">IF(E14*D14=0,"",E14*D14)</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21" t="str">
+      <c r="A15" s="6"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19" t="str">
+      <c r="A16" s="4"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21" t="str">
+      <c r="A17" s="6"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19" t="str">
+      <c r="A18" s="4"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21" t="str">
+      <c r="A19" s="6"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19" t="str">
+      <c r="A20" s="4"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21" t="str">
+      <c r="A21" s="6"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19" t="str">
+      <c r="A22" s="4"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21" t="str">
+      <c r="A23" s="6"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19" t="str">
+      <c r="A24" s="4"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21" t="str">
+      <c r="A25" s="6"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="19">
+      <c r="E26" s="36"/>
+      <c r="F26" s="13">
         <f>SUM(F14:F25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="D27" s="2" t="s">
+      <c r="B27" s="37"/>
+      <c r="D27" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="36"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="22">
+      <c r="B28" s="9">
+        <v>97518919</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="39"/>
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="9">
+        <v>722258411</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="34"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="9">
+        <v>1203942303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="38"/>
+      <c r="F32" s="14">
+        <f>F26-F27-F28-F29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="24">
-        <v>97518919</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="19" t="str">
-        <f>IF(F26*F27=0,"0.00",F26*F27)</f>
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="24">
-        <v>722258411</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="26" t="str">
-        <f>IF(F26-F28=0,"0.00",F26-F28)</f>
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="24">
-        <v>1203942303</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="24" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="35"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="28" t="str">
-        <f>IF(F29+F30=0,"0.00",F29+F30)</f>
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="31"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A34:F35"/>
+  <mergeCells count="33">
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D32:E32"/>
     <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
@@ -1046,21 +1143,22 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A34:F35"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1"/>
